--- a/SupplementaryMaterials/DataSet/DataFile.xlsx
+++ b/SupplementaryMaterials/DataSet/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterWork\Codes\DistributedAlgorithms\SupplementaryMaterials\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163D670D-6B60-4363-8BE3-96286F4CE637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFD5E9-D6C3-4052-9588-4929E4DA5F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="75">
   <si>
     <t>asset_id</t>
   </si>
@@ -248,6 +248,12 @@
   <si>
     <t>The value of theses columns varies based on the specific scenario, therefore it is kept empty.</t>
   </si>
+  <si>
+    <t>@Authors: Talha Rehman, Muhmmad Ahsan Khan, Woon-Gyu Lee, Hyeong-Jun yoo, Hak-Man Kim</t>
+  </si>
+  <si>
+    <t>Please note that some values might vary depending on the scenario, for more details refer to the paper</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,7 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,14 +576,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DBD2C5-4151-4839-863B-27E65509111F}">
-  <dimension ref="B5:AS239"/>
+  <dimension ref="B2:AS916"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -12188,6 +12203,26 @@
         <v>99</v>
       </c>
     </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D269" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E674" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="915" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F915" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="916" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F916" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:N5"/>
@@ -12202,15 +12237,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A9972-48EB-481D-8D14-74F14BEA1D8B}">
-  <dimension ref="C5:AL119"/>
+  <dimension ref="B1:AL403"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
@@ -12242,7 +12287,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -12258,7 +12303,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -12329,7 +12374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>1</v>
       </c>
@@ -12400,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>2</v>
       </c>
@@ -12471,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>3</v>
       </c>
@@ -12542,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.35">
       <c r="V12">
         <v>4</v>
       </c>
@@ -12592,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.35">
       <c r="V13">
         <v>5</v>
       </c>
@@ -12642,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>49</v>
       </c>
@@ -12700,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -12777,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>1</v>
       </c>
@@ -16126,6 +16171,21 @@
       </c>
       <c r="AB119">
         <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C283" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C403" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -16145,15 +16205,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:AV117"/>
+  <dimension ref="B1:AV636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T11" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.35">
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
@@ -16185,12 +16255,12 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -16224,7 +16294,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
     </row>
-    <row r="7" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>1</v>
       </c>
@@ -16310,7 +16380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>2</v>
       </c>
@@ -16396,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>3</v>
       </c>
@@ -16482,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -16555,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -16650,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>1</v>
       </c>
@@ -16745,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>2</v>
       </c>
@@ -16840,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>3</v>
       </c>
@@ -16935,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>4</v>
       </c>
@@ -17030,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>5</v>
       </c>
@@ -17086,7 +17156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>6</v>
       </c>
@@ -17139,7 +17209,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>7</v>
       </c>
@@ -17191,13 +17261,11 @@
       <c r="AF18">
         <v>0.03</v>
       </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AO18" t="s">
         <v>52</v>
       </c>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-    </row>
-    <row r="19" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="3:42" x14ac:dyDescent="0.35">
       <c r="Z19">
         <v>12</v>
       </c>
@@ -17238,7 +17306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>49</v>
       </c>
@@ -17287,7 +17355,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -17360,7 +17428,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>1</v>
       </c>
@@ -17443,7 +17511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2</v>
       </c>
@@ -17526,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>3</v>
       </c>
@@ -17609,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>4</v>
       </c>
@@ -17692,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:42" x14ac:dyDescent="0.35">
       <c r="I26" t="s">
         <v>59</v>
       </c>
@@ -17736,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:42" x14ac:dyDescent="0.35">
       <c r="Z27">
         <v>20</v>
       </c>
@@ -17777,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>28</v>
       </c>
@@ -17821,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>8</v>
       </c>
@@ -17880,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>1</v>
       </c>
@@ -17918,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:42" x14ac:dyDescent="0.35">
       <c r="Z31" t="s">
         <v>19</v>
       </c>
@@ -17946,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>66</v>
       </c>
@@ -20966,17 +21034,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C217" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C379" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C459" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D636" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="Y4:AK4"/>
     <mergeCell ref="AT6:AV6"/>
     <mergeCell ref="AG31:AI31"/>
     <mergeCell ref="AN21:AP21"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="G4:S4"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="Y4:AK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20984,356 +21077,387 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACF8DE8-A85E-4BCE-B067-B0EAF8093F66}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="B1:E712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B712" sqref="B712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5">
         <v>0.65</v>
       </c>
-      <c r="B2">
+      <c r="C5">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D5">
         <v>5.4299800000000005E-4</v>
       </c>
-      <c r="D2">
+      <c r="E5">
         <v>0.74213260299999995</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6">
         <v>0.6</v>
       </c>
-      <c r="B3">
+      <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="C3">
+      <c r="D6">
         <v>8.9206799999999998E-4</v>
       </c>
-      <c r="D3">
+      <c r="E6">
         <v>0.74210531400000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7">
         <v>0.59</v>
       </c>
-      <c r="B4">
+      <c r="C7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="C4">
+      <c r="D7">
         <v>4.2330545999999997E-2</v>
       </c>
-      <c r="D4">
+      <c r="E7">
         <v>0.60096679600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B5">
+      <c r="C8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C5">
+      <c r="D8">
         <v>4.2330545999999997E-2</v>
       </c>
-      <c r="D5">
+      <c r="E8">
         <v>0.35693471199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B6">
+      <c r="C9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C6">
+      <c r="D9">
         <v>0.23168934299999999</v>
       </c>
-      <c r="D6">
+      <c r="E9">
         <v>0.16774489100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10">
         <v>0.62</v>
       </c>
-      <c r="B7">
+      <c r="C10">
         <v>0.31</v>
       </c>
-      <c r="C7">
+      <c r="D10">
         <v>0.37978031899999998</v>
       </c>
-      <c r="D7">
+      <c r="E10">
         <v>0.115953103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11">
         <v>0.68</v>
       </c>
-      <c r="B8">
+      <c r="C11">
         <v>0.34</v>
       </c>
-      <c r="C8">
+      <c r="D11">
         <v>0.59314736999999995</v>
       </c>
-      <c r="D8">
+      <c r="E11">
         <v>0.16736285000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12">
         <v>0.75</v>
       </c>
-      <c r="B9">
+      <c r="C12">
         <v>0.375</v>
       </c>
-      <c r="C9">
+      <c r="D12">
         <v>0.72399429100000001</v>
       </c>
-      <c r="D9">
+      <c r="E12">
         <v>0.160318497</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13">
         <v>0.79</v>
       </c>
-      <c r="B10">
+      <c r="C13">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C10">
+      <c r="D13">
         <v>0.91333757400000004</v>
       </c>
-      <c r="D10">
+      <c r="E13">
         <v>0.397290633</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14">
         <v>0.85</v>
       </c>
-      <c r="B11">
+      <c r="C14">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D14">
         <v>0.96174193600000002</v>
       </c>
-      <c r="D11">
+      <c r="E14">
         <v>0.53463019099999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15">
         <v>0.87</v>
       </c>
-      <c r="B12">
+      <c r="C15">
         <v>0.435</v>
       </c>
-      <c r="C12">
+      <c r="D15">
         <v>0.96543432100000004</v>
       </c>
-      <c r="D12">
+      <c r="E15">
         <v>0.46241094700000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16">
         <v>0.9</v>
       </c>
-      <c r="B13">
+      <c r="C16">
         <v>0.45</v>
       </c>
-      <c r="C13">
+      <c r="D16">
         <v>0.97938935999999999</v>
       </c>
-      <c r="D13">
+      <c r="E16">
         <v>0.45870164800000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17">
         <v>0.93</v>
       </c>
-      <c r="B14">
+      <c r="C17">
         <v>0.46500000000000002</v>
       </c>
-      <c r="C14">
+      <c r="D17">
         <v>0.96247110499999999</v>
       </c>
-      <c r="D14">
+      <c r="E17">
         <v>0.55477306599999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18">
         <v>0.96</v>
       </c>
-      <c r="B15">
+      <c r="C18">
         <v>0.48</v>
       </c>
-      <c r="C15">
+      <c r="D18">
         <v>0.93871107899999995</v>
       </c>
-      <c r="D15">
+      <c r="E18">
         <v>0.64053914499999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19">
         <v>0.97</v>
       </c>
-      <c r="B16">
+      <c r="C19">
         <v>0.48499999999999999</v>
       </c>
-      <c r="C16">
+      <c r="D19">
         <v>0.77404316100000004</v>
       </c>
-      <c r="D16">
+      <c r="E19">
         <v>0.81221164199999996</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20">
         <v>0.98</v>
       </c>
-      <c r="B17">
+      <c r="C20">
         <v>0.49</v>
       </c>
-      <c r="C17">
+      <c r="D20">
         <v>0.72958716700000004</v>
       </c>
-      <c r="D17">
+      <c r="E20">
         <v>0.81899480499999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21">
         <v>0.98</v>
       </c>
-      <c r="B18">
+      <c r="C21">
         <v>0.49</v>
       </c>
-      <c r="C18">
+      <c r="D21">
         <v>0.52722745400000004</v>
       </c>
-      <c r="D18">
+      <c r="E21">
         <v>0.812032317</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22">
         <v>0.98</v>
       </c>
-      <c r="B19">
+      <c r="C22">
         <v>0.49</v>
       </c>
-      <c r="C19">
+      <c r="D22">
         <v>0.25254821</v>
       </c>
-      <c r="D19">
+      <c r="E22">
         <v>0.85645228900000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23">
         <v>0.97</v>
       </c>
-      <c r="B20">
+      <c r="C23">
         <v>0.48499999999999999</v>
       </c>
-      <c r="C20">
+      <c r="D23">
         <v>0.225336271</v>
       </c>
-      <c r="D20">
+      <c r="E23">
         <v>0.83916886800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24">
         <v>0.9</v>
       </c>
-      <c r="B21">
+      <c r="C24">
         <v>0.45</v>
       </c>
-      <c r="C21">
+      <c r="D24">
         <v>0.17755247699999999</v>
       </c>
-      <c r="D21">
+      <c r="E24">
         <v>0.887103219</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25">
         <v>0.84</v>
       </c>
-      <c r="B22">
+      <c r="C25">
         <v>0.42</v>
       </c>
-      <c r="C22">
+      <c r="D25">
         <v>5.7658594000000001E-2</v>
       </c>
-      <c r="D22">
+      <c r="E25">
         <v>0.92134649700000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26">
         <v>0.76</v>
       </c>
-      <c r="B23">
+      <c r="C26">
         <v>0.38</v>
       </c>
-      <c r="C23">
+      <c r="D26">
         <v>4.0655009999999998E-2</v>
       </c>
-      <c r="D23">
+      <c r="E26">
         <v>0.83870106300000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27">
         <v>0.7</v>
       </c>
-      <c r="B24">
+      <c r="C27">
         <v>0.35</v>
       </c>
-      <c r="C24">
+      <c r="D27">
         <v>1.3691297999999999E-2</v>
       </c>
-      <c r="D24">
+      <c r="E27">
         <v>0.972608107</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0.7</v>
+      </c>
+      <c r="C28">
+        <v>0.35</v>
+      </c>
+      <c r="D28">
         <v>1.3691297999999999E-2</v>
       </c>
-      <c r="D25">
+      <c r="E28">
         <v>0.972608107</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B413" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B712" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/SupplementaryMaterials/DataSet/DataFile.xlsx
+++ b/SupplementaryMaterials/DataSet/DataFile.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterWork\Codes\DistributedAlgorithms\SupplementaryMaterials\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inu_phd\Codes\DistributedAlgorithms\SupplementaryMaterials\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFD5E9-D6C3-4052-9588-4929E4DA5F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E1BE7-C412-4AB7-AAED-27AF3597C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="3" r:id="rId1"/>
     <sheet name="B" sheetId="2" r:id="rId2"/>
     <sheet name="C" sheetId="1" r:id="rId3"/>
-    <sheet name="Multipliers" sheetId="4" r:id="rId4"/>
+    <sheet name="D" sheetId="5" r:id="rId4"/>
+    <sheet name="Multipliers" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
   <si>
     <t>asset_id</t>
   </si>
@@ -254,6 +255,18 @@
   <si>
     <t>Please note that some values might vary depending on the scenario, for more details refer to the paper</t>
   </si>
+  <si>
+    <t>123-bus</t>
+  </si>
+  <si>
+    <t>BESS</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DBD2C5-4151-4839-863B-27E65509111F}">
   <dimension ref="B2:AS916"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12239,8 +12253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A9972-48EB-481D-8D14-74F14BEA1D8B}">
   <dimension ref="B1:AL403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C403" sqref="C403"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16207,7 +16221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV636"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
@@ -21076,14 +21090,2836 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A4B51E-E16F-4BCC-AFDF-953921FF41C8}">
+  <dimension ref="B1:Q98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.97</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="H8">
+        <v>0.97</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>0.97</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>0.9</v>
+      </c>
+      <c r="H10">
+        <v>0.97</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
+      </c>
+      <c r="H11">
+        <v>0.97</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.03</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>120</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0.03</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>60</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>180</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0.03</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>120</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0.03</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0.03</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>120</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0.03</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0.03</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>120</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.03</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0.03</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <v>160</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.04</v>
+      </c>
+      <c r="H22">
+        <v>2.5</v>
+      </c>
+      <c r="I22">
+        <v>0.03</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <v>110</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.04</v>
+      </c>
+      <c r="H23">
+        <v>2.5</v>
+      </c>
+      <c r="I23">
+        <v>0.03</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0.03</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>120</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>140</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0.03</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>17</v>
+      </c>
+      <c r="M25">
+        <v>60</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0.03</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>160</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.04</v>
+      </c>
+      <c r="H27">
+        <v>2.5</v>
+      </c>
+      <c r="I27">
+        <v>0.03</v>
+      </c>
+      <c r="K27">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>101</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>0.03</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>120</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>108</v>
+      </c>
+      <c r="E29">
+        <v>140</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.03</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>0.03</v>
+      </c>
+      <c r="K29">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>120</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>120</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>120</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>116</v>
+      </c>
+      <c r="E33">
+        <v>10000</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>0.01</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>60</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K34">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>60</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>120</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>120</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>600</v>
+      </c>
+      <c r="K37">
+        <v>24</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>120</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>140</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>120</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>60</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>900</v>
+      </c>
+      <c r="K40">
+        <v>27</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>60</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="K41">
+        <v>28</v>
+      </c>
+      <c r="L41">
+        <v>41</v>
+      </c>
+      <c r="M41">
+        <v>60</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>43</v>
+      </c>
+      <c r="M43">
+        <v>120</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>600</v>
+      </c>
+      <c r="K44">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>45</v>
+      </c>
+      <c r="M44">
+        <v>60</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>41</v>
+      </c>
+      <c r="E45">
+        <v>400</v>
+      </c>
+      <c r="K45">
+        <v>32</v>
+      </c>
+      <c r="L45">
+        <v>46</v>
+      </c>
+      <c r="M45">
+        <v>60</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>400</v>
+      </c>
+      <c r="K46">
+        <v>33</v>
+      </c>
+      <c r="L46">
+        <v>47</v>
+      </c>
+      <c r="M46">
+        <v>315</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>51</v>
+      </c>
+      <c r="E47">
+        <v>150</v>
+      </c>
+      <c r="K47">
+        <v>34</v>
+      </c>
+      <c r="L47">
+        <v>48</v>
+      </c>
+      <c r="M47">
+        <v>180</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>160</v>
+      </c>
+      <c r="K48">
+        <v>35</v>
+      </c>
+      <c r="L48">
+        <v>49</v>
+      </c>
+      <c r="M48">
+        <v>240</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>62</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+      <c r="K49">
+        <v>36</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>120</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+      <c r="K50">
+        <v>37</v>
+      </c>
+      <c r="L50">
+        <v>51</v>
+      </c>
+      <c r="M50">
+        <v>60</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>82</v>
+      </c>
+      <c r="E51">
+        <v>600</v>
+      </c>
+      <c r="K51">
+        <v>38</v>
+      </c>
+      <c r="L51">
+        <v>52</v>
+      </c>
+      <c r="M51">
+        <v>120</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>86</v>
+      </c>
+      <c r="E52">
+        <v>400</v>
+      </c>
+      <c r="K52">
+        <v>39</v>
+      </c>
+      <c r="L52">
+        <v>53</v>
+      </c>
+      <c r="M52">
+        <v>120</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>95</v>
+      </c>
+      <c r="E53">
+        <v>400</v>
+      </c>
+      <c r="K53">
+        <v>40</v>
+      </c>
+      <c r="L53">
+        <v>55</v>
+      </c>
+      <c r="M53">
+        <v>60</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>103</v>
+      </c>
+      <c r="E54">
+        <v>150</v>
+      </c>
+      <c r="K54">
+        <v>41</v>
+      </c>
+      <c r="L54">
+        <v>56</v>
+      </c>
+      <c r="M54">
+        <v>60</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>106</v>
+      </c>
+      <c r="E55">
+        <v>160</v>
+      </c>
+      <c r="K55">
+        <v>42</v>
+      </c>
+      <c r="L55">
+        <v>58</v>
+      </c>
+      <c r="M55">
+        <v>60</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>112</v>
+      </c>
+      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="K56">
+        <v>43</v>
+      </c>
+      <c r="L56">
+        <v>59</v>
+      </c>
+      <c r="M56">
+        <v>60</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K57">
+        <v>44</v>
+      </c>
+      <c r="L57">
+        <v>60</v>
+      </c>
+      <c r="M57">
+        <v>60</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K58">
+        <v>45</v>
+      </c>
+      <c r="L58">
+        <v>62</v>
+      </c>
+      <c r="M58">
+        <v>120</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K59">
+        <v>46</v>
+      </c>
+      <c r="L59">
+        <v>63</v>
+      </c>
+      <c r="M59">
+        <v>120</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K60">
+        <v>47</v>
+      </c>
+      <c r="L60">
+        <v>64</v>
+      </c>
+      <c r="M60">
+        <v>225</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K61">
+        <v>48</v>
+      </c>
+      <c r="L61">
+        <v>65</v>
+      </c>
+      <c r="M61">
+        <v>420</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K62">
+        <v>49</v>
+      </c>
+      <c r="L62">
+        <v>66</v>
+      </c>
+      <c r="M62">
+        <v>225</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K63">
+        <v>50</v>
+      </c>
+      <c r="L63">
+        <v>68</v>
+      </c>
+      <c r="M63">
+        <v>60</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="K64">
+        <v>51</v>
+      </c>
+      <c r="L64">
+        <v>69</v>
+      </c>
+      <c r="M64">
+        <v>120</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K65">
+        <v>52</v>
+      </c>
+      <c r="L65">
+        <v>70</v>
+      </c>
+      <c r="M65">
+        <v>60</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K66">
+        <v>53</v>
+      </c>
+      <c r="L66">
+        <v>71</v>
+      </c>
+      <c r="M66">
+        <v>120</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K67">
+        <v>54</v>
+      </c>
+      <c r="L67">
+        <v>73</v>
+      </c>
+      <c r="M67">
+        <v>120</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K68">
+        <v>55</v>
+      </c>
+      <c r="L68">
+        <v>74</v>
+      </c>
+      <c r="M68">
+        <v>120</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K69">
+        <v>56</v>
+      </c>
+      <c r="L69">
+        <v>75</v>
+      </c>
+      <c r="M69">
+        <v>120</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K70">
+        <v>57</v>
+      </c>
+      <c r="L70">
+        <v>76</v>
+      </c>
+      <c r="M70">
+        <v>120</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K71">
+        <v>58</v>
+      </c>
+      <c r="L71">
+        <v>77</v>
+      </c>
+      <c r="M71">
+        <v>120</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K72">
+        <v>59</v>
+      </c>
+      <c r="L72">
+        <v>79</v>
+      </c>
+      <c r="M72">
+        <v>120</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K73">
+        <v>60</v>
+      </c>
+      <c r="L73">
+        <v>80</v>
+      </c>
+      <c r="M73">
+        <v>120</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K74">
+        <v>61</v>
+      </c>
+      <c r="L74">
+        <v>82</v>
+      </c>
+      <c r="M74">
+        <v>120</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K75">
+        <v>62</v>
+      </c>
+      <c r="L75">
+        <v>83</v>
+      </c>
+      <c r="M75">
+        <v>60</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K76">
+        <v>63</v>
+      </c>
+      <c r="L76">
+        <v>84</v>
+      </c>
+      <c r="M76">
+        <v>60</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K77">
+        <v>64</v>
+      </c>
+      <c r="L77">
+        <v>85</v>
+      </c>
+      <c r="M77">
+        <v>120</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K78">
+        <v>65</v>
+      </c>
+      <c r="L78">
+        <v>86</v>
+      </c>
+      <c r="M78">
+        <v>60</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K79">
+        <v>66</v>
+      </c>
+      <c r="L79">
+        <v>87</v>
+      </c>
+      <c r="M79">
+        <v>120</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K80">
+        <v>67</v>
+      </c>
+      <c r="L80">
+        <v>88</v>
+      </c>
+      <c r="M80">
+        <v>120</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K81">
+        <v>68</v>
+      </c>
+      <c r="L81">
+        <v>90</v>
+      </c>
+      <c r="M81">
+        <v>120</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K82">
+        <v>69</v>
+      </c>
+      <c r="L82">
+        <v>92</v>
+      </c>
+      <c r="M82">
+        <v>120</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K83">
+        <v>70</v>
+      </c>
+      <c r="L83">
+        <v>94</v>
+      </c>
+      <c r="M83">
+        <v>120</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K84">
+        <v>71</v>
+      </c>
+      <c r="L84">
+        <v>95</v>
+      </c>
+      <c r="M84">
+        <v>60</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K85">
+        <v>72</v>
+      </c>
+      <c r="L85">
+        <v>96</v>
+      </c>
+      <c r="M85">
+        <v>60</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K86">
+        <v>73</v>
+      </c>
+      <c r="L86">
+        <v>98</v>
+      </c>
+      <c r="M86">
+        <v>120</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K87">
+        <v>74</v>
+      </c>
+      <c r="L87">
+        <v>99</v>
+      </c>
+      <c r="M87">
+        <v>120</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K88">
+        <v>75</v>
+      </c>
+      <c r="L88">
+        <v>100</v>
+      </c>
+      <c r="M88">
+        <v>120</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K89">
+        <v>76</v>
+      </c>
+      <c r="L89">
+        <v>102</v>
+      </c>
+      <c r="M89">
+        <v>60</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K90">
+        <v>77</v>
+      </c>
+      <c r="L90">
+        <v>103</v>
+      </c>
+      <c r="M90">
+        <v>120</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K91">
+        <v>78</v>
+      </c>
+      <c r="L91">
+        <v>104</v>
+      </c>
+      <c r="M91">
+        <v>120</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K92">
+        <v>79</v>
+      </c>
+      <c r="L92">
+        <v>106</v>
+      </c>
+      <c r="M92">
+        <v>120</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K93">
+        <v>80</v>
+      </c>
+      <c r="L93">
+        <v>107</v>
+      </c>
+      <c r="M93">
+        <v>120</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K94">
+        <v>81</v>
+      </c>
+      <c r="L94">
+        <v>109</v>
+      </c>
+      <c r="M94">
+        <v>120</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K95">
+        <v>82</v>
+      </c>
+      <c r="L95">
+        <v>111</v>
+      </c>
+      <c r="M95">
+        <v>60</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K96">
+        <v>83</v>
+      </c>
+      <c r="L96">
+        <v>112</v>
+      </c>
+      <c r="M96">
+        <v>60</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K97">
+        <v>84</v>
+      </c>
+      <c r="L97">
+        <v>113</v>
+      </c>
+      <c r="M97">
+        <v>120</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K98">
+        <v>85</v>
+      </c>
+      <c r="L98">
+        <v>114</v>
+      </c>
+      <c r="M98">
+        <v>60</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACF8DE8-A85E-4BCE-B067-B0EAF8093F66}">
   <dimension ref="B1:E712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B712" sqref="B712"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -21116,10 +23952,10 @@
       <c r="C5">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>5.4299800000000005E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.74213260299999995</v>
       </c>
     </row>
@@ -21130,10 +23966,10 @@
       <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>8.9206799999999998E-4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.74210531400000002</v>
       </c>
     </row>
@@ -21144,10 +23980,10 @@
       <c r="C7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D7">
-        <v>4.2330545999999997E-2</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.60096679600000003</v>
       </c>
     </row>
@@ -21158,10 +23994,10 @@
       <c r="C8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8">
-        <v>4.2330545999999997E-2</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.35693471199999999</v>
       </c>
     </row>
@@ -21172,10 +24008,10 @@
       <c r="C9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.23168934299999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.16774489100000001</v>
       </c>
     </row>
@@ -21186,10 +24022,10 @@
       <c r="C10">
         <v>0.31</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.37978031899999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.115953103</v>
       </c>
     </row>
@@ -21200,10 +24036,10 @@
       <c r="C11">
         <v>0.34</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.59314736999999995</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.16736285000000001</v>
       </c>
     </row>
@@ -21214,10 +24050,10 @@
       <c r="C12">
         <v>0.375</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.72399429100000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.160318497</v>
       </c>
     </row>
@@ -21228,10 +24064,10 @@
       <c r="C13">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.91333757400000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.397290633</v>
       </c>
     </row>
@@ -21242,10 +24078,10 @@
       <c r="C14">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.96174193600000002</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.53463019099999998</v>
       </c>
     </row>
@@ -21256,10 +24092,10 @@
       <c r="C15">
         <v>0.435</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.96543432100000004</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.46241094700000002</v>
       </c>
     </row>
@@ -21270,10 +24106,10 @@
       <c r="C16">
         <v>0.45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.97938935999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.45870164800000002</v>
       </c>
     </row>
@@ -21284,10 +24120,10 @@
       <c r="C17">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.96247110499999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.55477306599999998</v>
       </c>
     </row>
@@ -21298,10 +24134,10 @@
       <c r="C18">
         <v>0.48</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>0.93871107899999995</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>0.64053914499999998</v>
       </c>
     </row>
@@ -21312,10 +24148,10 @@
       <c r="C19">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.77404316100000004</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.81221164199999996</v>
       </c>
     </row>
@@ -21326,10 +24162,10 @@
       <c r="C20">
         <v>0.49</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>0.72958716700000004</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.81899480499999999</v>
       </c>
     </row>
@@ -21340,10 +24176,10 @@
       <c r="C21">
         <v>0.49</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.52722745400000004</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.812032317</v>
       </c>
     </row>
@@ -21354,10 +24190,10 @@
       <c r="C22">
         <v>0.49</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0.25254821</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.85645228900000003</v>
       </c>
     </row>
@@ -21368,10 +24204,10 @@
       <c r="C23">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0.225336271</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>0.83916886800000001</v>
       </c>
     </row>
@@ -21382,10 +24218,10 @@
       <c r="C24">
         <v>0.45</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0.17755247699999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0.887103219</v>
       </c>
     </row>
@@ -21396,10 +24232,10 @@
       <c r="C25">
         <v>0.42</v>
       </c>
-      <c r="D25">
-        <v>5.7658594000000001E-2</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <v>0.92134649700000004</v>
       </c>
     </row>
@@ -21410,10 +24246,10 @@
       <c r="C26">
         <v>0.38</v>
       </c>
-      <c r="D26">
-        <v>4.0655009999999998E-2</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>0.83870106300000002</v>
       </c>
     </row>
@@ -21424,10 +24260,10 @@
       <c r="C27">
         <v>0.35</v>
       </c>
-      <c r="D27">
-        <v>1.3691297999999999E-2</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>0.972608107</v>
       </c>
     </row>
@@ -21438,10 +24274,10 @@
       <c r="C28">
         <v>0.35</v>
       </c>
-      <c r="D28">
-        <v>1.3691297999999999E-2</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <v>0.972608107</v>
       </c>
     </row>

--- a/SupplementaryMaterials/DataSet/DataFile.xlsx
+++ b/SupplementaryMaterials/DataSet/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inu_phd\Codes\DistributedAlgorithms\SupplementaryMaterials\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E1BE7-C412-4AB7-AAED-27AF3597C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E79E1-2978-4E3F-A10F-4A3F0527C999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="80">
   <si>
     <t>asset_id</t>
   </si>
@@ -267,6 +267,9 @@
   <si>
     <t>RES</t>
   </si>
+  <si>
+    <t>Adapted From Ref. [Z. Wang and J. Wang, "Self-Healing Resilient Distribution Systems Based on Sectionalization Into Microgrids," in IEEE Transactions on Power Systems, vol. 30, no. 6, pp. 3139-3149, Nov. 2015, doi: 10.1109/TPWRS.2015.2389753.]</t>
+  </si>
 </sst>
 </file>
 
@@ -306,10 +309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DBD2C5-4151-4839-863B-27E65509111F}">
   <dimension ref="B2:AS916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
@@ -609,36 +612,36 @@
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="T5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="T5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
@@ -701,11 +704,11 @@
       <c r="AA9" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
       <c r="AM9" t="s">
         <v>25</v>
       </c>
@@ -2096,11 +2099,11 @@
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="U29">
         <v>19</v>
       </c>
@@ -2525,11 +2528,11 @@
       <c r="AA34" t="s">
         <v>19</v>
       </c>
-      <c r="AE34" s="2" t="s">
+      <c r="AE34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
       <c r="AM34">
         <v>23</v>
       </c>
@@ -12253,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A9972-48EB-481D-8D14-74F14BEA1D8B}">
   <dimension ref="B1:AL403"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12270,36 +12273,36 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="U5" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="U5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -12311,11 +12314,11 @@
       <c r="AD7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -12705,11 +12708,11 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="V14">
         <v>6</v>
       </c>
@@ -13090,11 +13093,11 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="V21">
         <v>13</v>
       </c>
@@ -13496,11 +13499,11 @@
       <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="3:28" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
@@ -13550,19 +13553,19 @@
       <c r="V33" t="s">
         <v>19</v>
       </c>
-      <c r="Z33" s="2" t="s">
+      <c r="Z33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
       <c r="AD33" t="s">
         <v>50</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AH33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.35">
       <c r="C34">
@@ -16221,8 +16224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV636"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView topLeftCell="AK9" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16231,43 +16234,49 @@
       <c r="B1" t="s">
         <v>73</v>
       </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>74</v>
       </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="Y4" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="Y4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
@@ -16302,11 +16311,11 @@
       <c r="AI6" t="s">
         <v>49</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C7">
@@ -16570,11 +16579,11 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="Z10">
         <v>3</v>
       </c>
@@ -17324,11 +17333,11 @@
       <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Z20">
         <v>13</v>
       </c>
@@ -17436,11 +17445,11 @@
       <c r="AK21" t="s">
         <v>50</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
     </row>
     <row r="22" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C22">
@@ -18004,11 +18013,11 @@
       <c r="Z31" t="s">
         <v>19</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AG31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
       <c r="AK31">
         <v>9</v>
       </c>
@@ -18032,11 +18041,11 @@
       <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="Z32" t="s">
         <v>8</v>
       </c>
@@ -18394,11 +18403,11 @@
       <c r="C38" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="Z38">
         <v>6</v>
       </c>
@@ -21093,8 +21102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A4B51E-E16F-4BCC-AFDF-953921FF41C8}">
   <dimension ref="B1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21112,6 +21121,9 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
@@ -23952,10 +23964,10 @@
       <c r="C5">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>5.4299800000000005E-4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.74213260299999995</v>
       </c>
     </row>
@@ -23966,10 +23978,10 @@
       <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>8.9206799999999998E-4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.74210531400000002</v>
       </c>
     </row>
@@ -23980,10 +23992,10 @@
       <c r="C7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.60096679600000003</v>
       </c>
     </row>
@@ -23994,10 +24006,10 @@
       <c r="C8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.35693471199999999</v>
       </c>
     </row>
@@ -24008,10 +24020,10 @@
       <c r="C9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.23168934299999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.16774489100000001</v>
       </c>
     </row>
@@ -24022,10 +24034,10 @@
       <c r="C10">
         <v>0.31</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.37978031899999998</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.115953103</v>
       </c>
     </row>
@@ -24036,10 +24048,10 @@
       <c r="C11">
         <v>0.34</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.59314736999999995</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.16736285000000001</v>
       </c>
     </row>
@@ -24050,10 +24062,10 @@
       <c r="C12">
         <v>0.375</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.72399429100000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.160318497</v>
       </c>
     </row>
@@ -24064,10 +24076,10 @@
       <c r="C13">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.91333757400000004</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.397290633</v>
       </c>
     </row>
@@ -24078,10 +24090,10 @@
       <c r="C14">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.96174193600000002</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.53463019099999998</v>
       </c>
     </row>
@@ -24092,10 +24104,10 @@
       <c r="C15">
         <v>0.435</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.96543432100000004</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.46241094700000002</v>
       </c>
     </row>
@@ -24106,10 +24118,10 @@
       <c r="C16">
         <v>0.45</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.97938935999999999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0.45870164800000002</v>
       </c>
     </row>
@@ -24120,10 +24132,10 @@
       <c r="C17">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.96247110499999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.55477306599999998</v>
       </c>
     </row>
@@ -24134,10 +24146,10 @@
       <c r="C18">
         <v>0.48</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.93871107899999995</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.64053914499999998</v>
       </c>
     </row>
@@ -24148,10 +24160,10 @@
       <c r="C19">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>0.77404316100000004</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.81221164199999996</v>
       </c>
     </row>
@@ -24162,10 +24174,10 @@
       <c r="C20">
         <v>0.49</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.72958716700000004</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>0.81899480499999999</v>
       </c>
     </row>
@@ -24176,10 +24188,10 @@
       <c r="C21">
         <v>0.49</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.52722745400000004</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0.812032317</v>
       </c>
     </row>
@@ -24190,10 +24202,10 @@
       <c r="C22">
         <v>0.49</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.25254821</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.85645228900000003</v>
       </c>
     </row>
@@ -24204,10 +24216,10 @@
       <c r="C23">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>0.225336271</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>0.83916886800000001</v>
       </c>
     </row>
@@ -24218,10 +24230,10 @@
       <c r="C24">
         <v>0.45</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>0.17755247699999999</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.887103219</v>
       </c>
     </row>
@@ -24232,10 +24244,10 @@
       <c r="C25">
         <v>0.42</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>0.92134649700000004</v>
       </c>
     </row>
@@ -24246,10 +24258,10 @@
       <c r="C26">
         <v>0.38</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.83870106300000002</v>
       </c>
     </row>
@@ -24260,10 +24272,10 @@
       <c r="C27">
         <v>0.35</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.972608107</v>
       </c>
     </row>
@@ -24274,10 +24286,10 @@
       <c r="C28">
         <v>0.35</v>
       </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>0.972608107</v>
       </c>
     </row>
